--- a/WIN Projects.xlsx
+++ b/WIN Projects.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecilia\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GlobalLabIQPProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905FBD2-F2FA-4128-BC79-3A4FE25BF69D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="880">
   <si>
     <t>Title</t>
   </si>
@@ -38,15 +37,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Project Center</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Subject Terms</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -59,9 +52,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Link to summary</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -80,9 +70,6 @@
     <t>A follow up study on the class of 1990?</t>
   </si>
   <si>
-    <t>on-campus</t>
-  </si>
-  <si>
     <t>WPI</t>
   </si>
   <si>
@@ -491,9 +478,6 @@
     <t>Gender related changes in academic motivation</t>
   </si>
   <si>
-    <t>Coeducational living in on-campus suites and apartments.</t>
-  </si>
-  <si>
     <t>Women|Mental health | Community development</t>
   </si>
   <si>
@@ -504,9 +488,6 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1uS-AbzzH5HRtiDxFp_gaGCkzL0e_ufhSWbaGRb6dpD0/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>To argue that coeducational housing on-campus should be an option for interested students</t>
   </si>
   <si>
     <t>Coed living at WPI</t>
@@ -1302,9 +1283,6 @@
     <t>Technology in Service of the Poor: An Assessment of a unique Poverty Diagnostic Tool and Its Implementation in Paraguay</t>
   </si>
   <si>
-    <t>Asunción, Paraguay</t>
-  </si>
-  <si>
     <t>Women--Economic aspects | Women entrepreneurs | Women in development</t>
   </si>
   <si>
@@ -1318,9 +1296,6 @@
   </si>
   <si>
     <t>To improve the monitoring system in place for tracking income poverty in the Poverty Stoplight Program developed by Fundacion Paraguaya</t>
-  </si>
-  <si>
-    <t>Fundación Paraguaya, people benefitting from the Poverty Stoplight Program</t>
   </si>
   <si>
     <t>Women and the Poverty Stoplight Program - Paraguay</t>
@@ -2706,12 +2681,33 @@
   </si>
   <si>
     <t>A follow up study would be interesting to try and determine when gendered interests appear in students</t>
+  </si>
+  <si>
+    <t>SubjectTerms</t>
+  </si>
+  <si>
+    <t>ProjectCenter</t>
+  </si>
+  <si>
+    <t>LinkToSummary</t>
+  </si>
+  <si>
+    <t>Asuncion, Paraguay</t>
+  </si>
+  <si>
+    <t>Fundacion Paraguaya, people benefitting from the Poverty Stoplight Program</t>
+  </si>
+  <si>
+    <t>Coeducational living in On-Campus suites and apartments.</t>
+  </si>
+  <si>
+    <t>To argue that coeducational housing On-Campus should be an option for interested students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3143,34 +3139,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="21.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3178,4547 +3174,4547 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="M1" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>785</v>
-      </c>
-      <c r="N1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>38718</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B3" s="6">
         <v>37622</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B4" s="7">
         <v>36892</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B5" s="4">
         <v>39083</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>39541</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4">
         <v>38353</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4">
         <v>38718</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4">
         <v>39914</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B10" s="4">
         <v>38353</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B11" s="4">
         <v>39083</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B12" s="4">
         <v>38718</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B13" s="6">
         <v>39083</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B14" s="6">
         <v>39722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B15" s="6">
         <v>38353</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B16" s="13">
         <v>42461</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>42488</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="M17" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B18" s="4">
         <v>37622</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="L18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="B19" s="4">
         <v>42818</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="M19" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="P19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="B20" s="4">
         <v>36892</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="J20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="M20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="O20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="B21" s="4">
         <v>39083</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="M21" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>43312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="L22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="M22" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4">
         <v>36526</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="J23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="L23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B24" s="4">
         <v>42796</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="J24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="M24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="B25" s="4">
         <v>40605</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="M25" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="B26" s="4">
         <v>36161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="M26" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="B27" s="4">
         <v>36892</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="J27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B28" s="4">
         <v>40840</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="L28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="P28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>153</v>
+        <v>878</v>
       </c>
       <c r="B29" s="4">
         <v>37987</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>158</v>
+        <v>879</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B30" s="4">
         <v>40247</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="M30" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="B31" s="4">
         <v>36892</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B32" s="4">
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="M32" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="B33" s="4">
         <v>36892</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B34" s="4">
         <v>41029</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4">
         <v>41334</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="M35" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="B36" s="4">
         <v>42130</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="M36" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="144" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="B37" s="4">
         <v>38353</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="M37" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="B38" s="4">
         <v>36526</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="240" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B39" s="4">
         <v>43083</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="M39" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="B40" s="4">
         <v>43224</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="M40" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="B41" s="4">
         <v>39925</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="B42" s="4">
         <v>40981</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B43" s="4">
         <v>36526</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="B44" s="4">
         <v>37257</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="K44" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B45" s="4">
         <v>43160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="M45" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="3" t="s">
+    </row>
+    <row r="46" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="B46" s="4">
         <v>37987</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="B47" s="4">
         <v>42125</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="M47" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="216" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="B48" s="4">
         <v>42714</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="M48" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="B49" s="4">
         <v>37622</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="M49" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="B50" s="4">
         <v>41709</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="B51" s="4">
         <v>42491</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B52" s="4">
         <v>43446</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="P52" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="B53" s="4">
         <v>42492</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="M53" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>358</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="B54" s="4">
         <v>40241</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="315" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="288" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="B55" s="4">
         <v>42812</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="M55" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="144" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="B56" s="4">
         <v>36161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B57" s="4">
         <v>38718</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="P57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="B58" s="4">
         <v>43209</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="216" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="B59" s="4">
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="M59" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="216" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="B60" s="4">
         <v>41707</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="B61" s="4">
         <v>41899</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="N61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="B62" s="4">
         <v>36161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="P62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>442</v>
       </c>
       <c r="B63" s="4">
         <v>38204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="270" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>443</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>451</v>
       </c>
       <c r="B64" s="4">
         <v>43448</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B65" s="4">
         <v>39749</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F65" s="3" t="s">
+    </row>
+    <row r="66" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="B66" s="4">
         <v>43083</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="270" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B67" s="4">
         <v>42128</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="B68" s="4">
         <v>42715</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B69" s="4">
         <v>42655</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B70" s="4">
         <v>39749</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B71" s="4">
         <v>42355</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B72" s="4">
         <v>39989</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L72" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>522</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>530</v>
       </c>
       <c r="B73" s="4">
         <v>38718</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B74" s="6">
         <v>36161</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>538</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
-        <v>546</v>
       </c>
       <c r="B75" s="7">
         <v>36161</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="B76" s="4">
         <v>36892</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B77" s="4">
         <v>37622</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B78" s="6">
         <v>36951</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B79" s="6">
         <v>42339</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>622</v>
       </c>
       <c r="B80" s="6">
         <v>42826</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="I80" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>623</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>631</v>
       </c>
       <c r="B81" s="6">
         <v>43525</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B82" s="6">
         <v>43556</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="144" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="B83" s="6">
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B84" s="6">
         <v>43497</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B85" s="6">
         <v>36526</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="I85" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="B86" s="6">
         <v>36526</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J86" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B87" s="6">
         <v>37257</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B88" s="6">
         <v>37257</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B89" s="6">
         <v>37257</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B90" s="6">
         <v>40513</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="285" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B91" s="6">
         <v>40940</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B92" s="11">
         <v>42590</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B93" s="11">
         <v>43221</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B94" s="6">
         <v>39083</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B95" s="6">
         <v>39479</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B96" s="11">
         <v>36588</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B97" s="11">
         <v>40302</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
         <v>735</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>743</v>
       </c>
       <c r="B98" s="11">
         <v>40971</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B99" s="13">
         <v>42430</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B100" s="4">
         <v>38718</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M100" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F100" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F36" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F40" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F41" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F42" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F46" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F47" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F50" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F66" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F69" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F70" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F75" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F76" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F77" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F78" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F79" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F81" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F82" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I45" r:id="rId79" display="https://drive.google.com/drive/folders/1lXF0LUAUBUf3O5vIsooryPiaWNUr8BtH " xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I55" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F92" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F99" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J2" r:id="rId83" xr:uid="{37744E8C-A11B-4AFD-A976-FA393C40350B}"/>
-    <hyperlink ref="J6" r:id="rId84" xr:uid="{E939BA10-D3BF-46CE-BAF8-B142B3A4C9D9}"/>
-    <hyperlink ref="J100" r:id="rId85" xr:uid="{CFEF85FA-6FDE-4C18-A404-41ED8CF87824}"/>
-    <hyperlink ref="J17" r:id="rId86" xr:uid="{B20821B3-000B-4F3B-813A-F0559510CA07}"/>
-    <hyperlink ref="J18" r:id="rId87" xr:uid="{15A45741-E493-4736-8817-8D98C3EA22DD}"/>
-    <hyperlink ref="J19" r:id="rId88" xr:uid="{7DE003CB-803B-4C23-868F-6C86D36584F5}"/>
-    <hyperlink ref="J20" r:id="rId89" xr:uid="{A81C6242-C1BA-4BAA-8709-46FE313CA0CC}"/>
-    <hyperlink ref="J21" r:id="rId90" xr:uid="{F07C29B8-937D-45CD-B2F1-6F07EEA4F389}"/>
-    <hyperlink ref="J22" r:id="rId91" xr:uid="{A6E60337-6BA2-461F-A093-D31DAA9BCD8B}"/>
-    <hyperlink ref="J23" r:id="rId92" xr:uid="{2FFCFA07-394E-4651-A290-B82E6A87EE29}"/>
-    <hyperlink ref="J24" r:id="rId93" xr:uid="{99B08F25-4B95-442A-B51A-8D282F5BC835}"/>
-    <hyperlink ref="J25" r:id="rId94" xr:uid="{317F9251-45B4-4737-9E47-8A4761F04890}"/>
-    <hyperlink ref="J26" r:id="rId95" xr:uid="{F5B47C88-2640-4601-80BE-163427DF3806}"/>
-    <hyperlink ref="J27" r:id="rId96" xr:uid="{86D9E672-8FA4-463B-BB03-AF31E31C986F}"/>
-    <hyperlink ref="J28" r:id="rId97" xr:uid="{4B81A05A-502E-4201-9D52-66B90E2FFF75}"/>
-    <hyperlink ref="J29" r:id="rId98" xr:uid="{4880A1CC-3912-4E74-9386-E533034889D8}"/>
-    <hyperlink ref="J30" r:id="rId99" xr:uid="{2BA7A11D-7770-4BC6-AA4F-6B559CA24492}"/>
-    <hyperlink ref="J31" r:id="rId100" xr:uid="{0A3B7C7D-37B9-4244-B989-AD0ECB0FC035}"/>
-    <hyperlink ref="J32" r:id="rId101" xr:uid="{12B439E6-2A8E-4598-AEE8-3A0B45ABE6A5}"/>
-    <hyperlink ref="J33" r:id="rId102" xr:uid="{CF06057C-B80A-4761-86BD-C978C34A6713}"/>
-    <hyperlink ref="J34" r:id="rId103" xr:uid="{9E01221E-C223-42B6-A40A-553FF38C320E}"/>
-    <hyperlink ref="J35" r:id="rId104" xr:uid="{A23B2F56-5A5B-457D-B491-596E5520A450}"/>
-    <hyperlink ref="J36" r:id="rId105" xr:uid="{52AD5911-AD67-4739-9D78-4F83C782CFC8}"/>
-    <hyperlink ref="J37" r:id="rId106" xr:uid="{041F2F5E-79F8-45B9-89C0-2F7E33C30969}"/>
-    <hyperlink ref="J38" r:id="rId107" xr:uid="{B4B1A732-00C3-49B6-BB08-CE70D634D37A}"/>
-    <hyperlink ref="J39" r:id="rId108" xr:uid="{6B89380F-8DFF-4E0F-9F27-B1E6EBC8A775}"/>
-    <hyperlink ref="J40" r:id="rId109" xr:uid="{79B880D7-E2B1-4D95-B3EB-13ADDE4B4DA5}"/>
-    <hyperlink ref="J41" r:id="rId110" xr:uid="{3BEC3C32-90E7-4436-B664-8D2FF2AB167A}"/>
-    <hyperlink ref="J42" r:id="rId111" xr:uid="{62F108E8-057A-4585-B2E8-71D3694E522D}"/>
-    <hyperlink ref="J43" r:id="rId112" xr:uid="{4CE47EC1-F97D-46B7-8669-760482932962}"/>
-    <hyperlink ref="J44" r:id="rId113" xr:uid="{52CE1BB5-7E07-4EFD-9637-F8C89AC97318}"/>
-    <hyperlink ref="J45" r:id="rId114" xr:uid="{DB233B7E-FE8E-4483-913E-2194B1628435}"/>
-    <hyperlink ref="J46" r:id="rId115" xr:uid="{EDD6F93B-0656-4F41-B70C-2F086CFAB04F}"/>
-    <hyperlink ref="J47" r:id="rId116" xr:uid="{136A853B-24D8-4A18-B484-318D80C523A7}"/>
-    <hyperlink ref="J48" r:id="rId117" xr:uid="{EA3D378B-C3EE-4D0C-870E-235E86DD1A88}"/>
-    <hyperlink ref="J49" r:id="rId118" xr:uid="{55BEF2EB-A72A-4251-B9BB-1421F116B794}"/>
-    <hyperlink ref="J50" r:id="rId119" xr:uid="{46D9D402-DA34-45C1-98F1-126314F1C316}"/>
-    <hyperlink ref="J51" r:id="rId120" xr:uid="{D284B46A-D79D-49F7-8556-C149745BE40F}"/>
-    <hyperlink ref="J52" r:id="rId121" xr:uid="{07071F5E-9C95-4286-89F6-0DA83832EE1B}"/>
-    <hyperlink ref="J53" r:id="rId122" xr:uid="{E1DFB697-98BA-420A-920A-479F67D1B031}"/>
-    <hyperlink ref="J54" r:id="rId123" xr:uid="{1AE1FC09-3BEF-4190-8880-06F1ECE54476}"/>
-    <hyperlink ref="J55" r:id="rId124" xr:uid="{233A7777-628B-4631-A985-591EB824A77B}"/>
-    <hyperlink ref="J56" r:id="rId125" xr:uid="{4A5BE6C2-6B31-4304-BA2D-83AEC55234F7}"/>
-    <hyperlink ref="J57" r:id="rId126" xr:uid="{D70DD4B9-FD44-4135-82D1-B26EBDE5C0DD}"/>
-    <hyperlink ref="J58" r:id="rId127" xr:uid="{EFC30C69-60F6-4D33-A49E-761C646EAFB2}"/>
-    <hyperlink ref="J59" r:id="rId128" xr:uid="{4DAE2BF4-BD06-4EEE-93F7-CFA2BD53C5E6}"/>
-    <hyperlink ref="J60" r:id="rId129" xr:uid="{755F1FE1-6E6F-4551-9011-A3EC45B4023D}"/>
-    <hyperlink ref="J61" r:id="rId130" xr:uid="{55A99D43-011F-4C70-B057-4A75F5A65037}"/>
-    <hyperlink ref="J62" r:id="rId131" xr:uid="{A59FAFE1-32A2-4983-92B9-310E70432ED9}"/>
-    <hyperlink ref="J63" r:id="rId132" xr:uid="{683A2DA2-8105-4B7D-89F8-7EE0D84143C0}"/>
-    <hyperlink ref="J64" r:id="rId133" xr:uid="{76069AB9-9D00-49EB-A991-CD59266D7D7C}"/>
-    <hyperlink ref="J65" r:id="rId134" xr:uid="{62804434-CFD9-4CB8-A077-34DD9053DEBF}"/>
-    <hyperlink ref="J66" r:id="rId135" xr:uid="{127088A3-F75E-43EC-AA96-0C6C982657E0}"/>
-    <hyperlink ref="J67" r:id="rId136" xr:uid="{C1F9BE8B-36E6-4A86-BC98-1C00304E045E}"/>
-    <hyperlink ref="J68" r:id="rId137" xr:uid="{C3292B7C-9C68-473C-8177-9BF91E4C6D06}"/>
-    <hyperlink ref="J69" r:id="rId138" xr:uid="{D13A01A7-896B-444A-B3FF-0CF1FD3A3F2F}"/>
-    <hyperlink ref="J70" r:id="rId139" xr:uid="{AD762999-4FFD-43E6-AECC-FBEB8065F611}"/>
-    <hyperlink ref="J71" r:id="rId140" xr:uid="{8BB9DA2B-0C1B-44CF-A10A-47860B133069}"/>
-    <hyperlink ref="J72" r:id="rId141" xr:uid="{0FCA25F4-6F27-498C-87B2-CD8110940F65}"/>
-    <hyperlink ref="J73" r:id="rId142" xr:uid="{A62C096D-9B92-480F-982F-E7AD20D6C9B7}"/>
-    <hyperlink ref="J74" r:id="rId143" xr:uid="{FAC88737-37D8-4365-8EA9-3E5E17BFDC98}"/>
-    <hyperlink ref="J75" r:id="rId144" xr:uid="{345376CB-1ACB-4114-B370-58FDC71EFD35}"/>
-    <hyperlink ref="J76" r:id="rId145" xr:uid="{2B687C29-50EF-46A3-9BDC-EEEAE22557A4}"/>
-    <hyperlink ref="J77" r:id="rId146" xr:uid="{B613CF56-D8B8-4B56-AFC2-5B664A7E4ED2}"/>
-    <hyperlink ref="J78" r:id="rId147" xr:uid="{647EA8D7-C475-483F-89F9-944C74318005}"/>
-    <hyperlink ref="J79" r:id="rId148" xr:uid="{684DB9F3-BCA3-48F7-93E4-FC2FF806E43B}"/>
-    <hyperlink ref="J80" r:id="rId149" xr:uid="{E8491FA6-A35A-44B1-8561-198BD89C6450}"/>
-    <hyperlink ref="J81" r:id="rId150" xr:uid="{58A29AF3-AF19-42A6-8AF5-43EAEB0FC141}"/>
-    <hyperlink ref="J82" r:id="rId151" xr:uid="{A5FB0FA7-BFFD-4004-89B7-0D524F343A41}"/>
-    <hyperlink ref="J83" r:id="rId152" xr:uid="{FEB85D58-2543-4BC3-B0AE-13C8694A85B1}"/>
-    <hyperlink ref="J84" r:id="rId153" xr:uid="{2D5BC19E-0CE0-4EB8-9ECA-809EC9B095BF}"/>
-    <hyperlink ref="J85" r:id="rId154" xr:uid="{02CE8A88-3D98-4979-A9BA-3299A7FB8DC4}"/>
-    <hyperlink ref="J86" r:id="rId155" xr:uid="{84B9F415-647D-47DC-88E3-F02048B267F1}"/>
-    <hyperlink ref="J87" r:id="rId156" xr:uid="{3F4A9798-BDBD-40EA-B876-6AD183C2B10C}"/>
-    <hyperlink ref="J88" r:id="rId157" xr:uid="{83EB292E-BAF4-4FCD-803F-82211CB81CB1}"/>
-    <hyperlink ref="J89" r:id="rId158" xr:uid="{B4AE3033-B436-4766-8DEA-56C693FF8781}"/>
-    <hyperlink ref="J90" r:id="rId159" xr:uid="{1095CDD8-074E-4F40-ABC9-76DDD7AAF461}"/>
-    <hyperlink ref="J91" r:id="rId160" xr:uid="{9382C17F-814F-4F7B-ABAE-1D434E76E81C}"/>
-    <hyperlink ref="J92" r:id="rId161" xr:uid="{DA5D45D6-5CD5-437F-88CA-F24F8F884C3D}"/>
-    <hyperlink ref="J99" r:id="rId162" xr:uid="{0806EF0F-5E27-4404-8F25-B1EE9A99C6ED}"/>
-    <hyperlink ref="F4" r:id="rId163" xr:uid="{877B5525-C0A5-4ADF-A999-539902B04B47}"/>
-    <hyperlink ref="J4" r:id="rId164" xr:uid="{99DDC167-30FF-4ECE-BC8E-D00C96A6338D}"/>
-    <hyperlink ref="F3" r:id="rId165" xr:uid="{C7770CD6-9A84-4B35-92A6-D0F2862AAC15}"/>
-    <hyperlink ref="J3" r:id="rId166" xr:uid="{8F02BE92-3A4F-4BB5-B0B3-D159B290CEAB}"/>
-    <hyperlink ref="F93" r:id="rId167" xr:uid="{B67B5D70-1C9A-42CC-8B5E-B4B428B4364F}"/>
-    <hyperlink ref="J93" r:id="rId168" xr:uid="{989EB940-8E97-4500-9775-452D4C13C266}"/>
-    <hyperlink ref="F98" r:id="rId169" xr:uid="{F719E802-4CD8-4A15-AE50-32C02670021C}"/>
-    <hyperlink ref="J98" r:id="rId170" xr:uid="{904F6C6A-7B45-4F0A-B879-37CFF284A65F}"/>
-    <hyperlink ref="F97" r:id="rId171" xr:uid="{1E0C359F-62F3-4D31-8535-37239BD09F99}"/>
-    <hyperlink ref="J97" r:id="rId172" xr:uid="{3DC3E6EC-C388-4C58-9961-E6D4310606F9}"/>
-    <hyperlink ref="F96" r:id="rId173" xr:uid="{FCC85111-1B44-4302-98D6-72E7244C80E7}"/>
-    <hyperlink ref="J96" r:id="rId174" xr:uid="{9CA4D687-5C06-4B2D-B25E-D7999745841B}"/>
-    <hyperlink ref="F95" r:id="rId175" xr:uid="{1534A802-6EDA-4557-8D8A-8C23FF570052}"/>
-    <hyperlink ref="J95" r:id="rId176" xr:uid="{D5EC933A-7570-4C31-978E-BB13B1A3F6ED}"/>
-    <hyperlink ref="F94" r:id="rId177" xr:uid="{2328095B-8824-42DE-AFD4-50121EE4F3B5}"/>
-    <hyperlink ref="J94" r:id="rId178" xr:uid="{924E9C16-5E04-48AF-9C27-4BABE563C105}"/>
-    <hyperlink ref="F5" r:id="rId179" xr:uid="{A20D5B9C-FA57-4093-B444-D8723C7E32A1}"/>
-    <hyperlink ref="J5" r:id="rId180" xr:uid="{F3CB0260-CBD5-4629-A95F-08A4EF5040A4}"/>
-    <hyperlink ref="F7" r:id="rId181" xr:uid="{8450B57C-D532-4051-B9CE-090F437D8575}"/>
-    <hyperlink ref="J7" r:id="rId182" xr:uid="{773033F1-A3EC-441B-916D-0B4D42B51A93}"/>
-    <hyperlink ref="F8" r:id="rId183" xr:uid="{EED44529-6323-4823-BD8E-2F88D89A4F06}"/>
-    <hyperlink ref="J8" r:id="rId184" xr:uid="{7667592E-3B90-4315-9F18-AEAFCA3DAC77}"/>
-    <hyperlink ref="F9" r:id="rId185" xr:uid="{0C0FA53F-3868-4946-8AE3-4A51AA138517}"/>
-    <hyperlink ref="J9" r:id="rId186" xr:uid="{B4C97E8B-199D-4DC2-958B-6164DE4E888B}"/>
-    <hyperlink ref="F10" r:id="rId187" xr:uid="{BCD84C8B-3763-4F12-B5EB-1052A20262B8}"/>
-    <hyperlink ref="J10" r:id="rId188" xr:uid="{0A55ED5B-1E81-43D0-9824-C46F68244E39}"/>
-    <hyperlink ref="F11" r:id="rId189" xr:uid="{BA23F8DC-FDEC-49B1-BFE5-78AE8541BBAF}"/>
-    <hyperlink ref="J11" r:id="rId190" xr:uid="{3C84089D-7303-4514-80B1-3EC271B8DB90}"/>
-    <hyperlink ref="F12" r:id="rId191" xr:uid="{1C6E22CC-51C2-4CF8-84E3-7EC65631EAD1}"/>
-    <hyperlink ref="J12" r:id="rId192" xr:uid="{DC948FCD-717B-4084-AF0A-BD41F573D60D}"/>
-    <hyperlink ref="F13" r:id="rId193" xr:uid="{DDF9DE9C-5A45-4C6B-8B8E-D7F0BE2946B6}"/>
-    <hyperlink ref="J13" r:id="rId194" xr:uid="{1A3E815A-9C25-4B36-9B12-1B1397AEFFC0}"/>
-    <hyperlink ref="F14" r:id="rId195" xr:uid="{BCB3082B-A2ED-44AA-B8F3-DBA5D7A1F9A9}"/>
-    <hyperlink ref="J14" r:id="rId196" xr:uid="{ABF57164-FAEE-4553-B858-92427DF0E49A}"/>
-    <hyperlink ref="F15" r:id="rId197" xr:uid="{3CF3BD39-071D-4988-B95A-52DEE4473695}"/>
-    <hyperlink ref="J15" r:id="rId198" xr:uid="{2DB595D6-9058-44A6-8F96-D3696253E8C5}"/>
-    <hyperlink ref="J16" r:id="rId199" xr:uid="{CAEE7322-16A4-435C-AC5A-584DA7E6E604}"/>
-    <hyperlink ref="F16" r:id="rId200" xr:uid="{600C28F7-80CD-4D46-90D6-780E260CFD75}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F100" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F18" r:id="rId5"/>
+    <hyperlink ref="F19" r:id="rId6"/>
+    <hyperlink ref="F20" r:id="rId7"/>
+    <hyperlink ref="F21" r:id="rId8"/>
+    <hyperlink ref="F22" r:id="rId9"/>
+    <hyperlink ref="F23" r:id="rId10"/>
+    <hyperlink ref="F24" r:id="rId11"/>
+    <hyperlink ref="F25" r:id="rId12"/>
+    <hyperlink ref="F26" r:id="rId13"/>
+    <hyperlink ref="F27" r:id="rId14"/>
+    <hyperlink ref="F28" r:id="rId15"/>
+    <hyperlink ref="F29" r:id="rId16"/>
+    <hyperlink ref="F30" r:id="rId17"/>
+    <hyperlink ref="F31" r:id="rId18"/>
+    <hyperlink ref="F32" r:id="rId19"/>
+    <hyperlink ref="F33" r:id="rId20"/>
+    <hyperlink ref="F34" r:id="rId21"/>
+    <hyperlink ref="F35" r:id="rId22"/>
+    <hyperlink ref="F36" r:id="rId23"/>
+    <hyperlink ref="F37" r:id="rId24"/>
+    <hyperlink ref="F38" r:id="rId25"/>
+    <hyperlink ref="F39" r:id="rId26"/>
+    <hyperlink ref="F40" r:id="rId27"/>
+    <hyperlink ref="F41" r:id="rId28"/>
+    <hyperlink ref="F42" r:id="rId29"/>
+    <hyperlink ref="F43" r:id="rId30"/>
+    <hyperlink ref="F44" r:id="rId31"/>
+    <hyperlink ref="F45" r:id="rId32"/>
+    <hyperlink ref="F46" r:id="rId33"/>
+    <hyperlink ref="F47" r:id="rId34"/>
+    <hyperlink ref="F48" r:id="rId35"/>
+    <hyperlink ref="F49" r:id="rId36"/>
+    <hyperlink ref="F50" r:id="rId37"/>
+    <hyperlink ref="F51" r:id="rId38"/>
+    <hyperlink ref="F52" r:id="rId39"/>
+    <hyperlink ref="F53" r:id="rId40"/>
+    <hyperlink ref="F54" r:id="rId41"/>
+    <hyperlink ref="F55" r:id="rId42"/>
+    <hyperlink ref="F56" r:id="rId43"/>
+    <hyperlink ref="F57" r:id="rId44"/>
+    <hyperlink ref="F58" r:id="rId45"/>
+    <hyperlink ref="F59" r:id="rId46"/>
+    <hyperlink ref="F60" r:id="rId47"/>
+    <hyperlink ref="F61" r:id="rId48"/>
+    <hyperlink ref="F62" r:id="rId49"/>
+    <hyperlink ref="F63" r:id="rId50"/>
+    <hyperlink ref="F64" r:id="rId51"/>
+    <hyperlink ref="F65" r:id="rId52"/>
+    <hyperlink ref="F66" r:id="rId53"/>
+    <hyperlink ref="F67" r:id="rId54"/>
+    <hyperlink ref="F68" r:id="rId55"/>
+    <hyperlink ref="F69" r:id="rId56"/>
+    <hyperlink ref="F70" r:id="rId57"/>
+    <hyperlink ref="F71" r:id="rId58"/>
+    <hyperlink ref="F72" r:id="rId59"/>
+    <hyperlink ref="F73" r:id="rId60"/>
+    <hyperlink ref="F74" r:id="rId61"/>
+    <hyperlink ref="F75" r:id="rId62"/>
+    <hyperlink ref="F76" r:id="rId63"/>
+    <hyperlink ref="F77" r:id="rId64"/>
+    <hyperlink ref="F78" r:id="rId65"/>
+    <hyperlink ref="F79" r:id="rId66"/>
+    <hyperlink ref="F80" r:id="rId67"/>
+    <hyperlink ref="F81" r:id="rId68"/>
+    <hyperlink ref="F82" r:id="rId69"/>
+    <hyperlink ref="F83" r:id="rId70"/>
+    <hyperlink ref="F84" r:id="rId71"/>
+    <hyperlink ref="F85" r:id="rId72"/>
+    <hyperlink ref="F86" r:id="rId73"/>
+    <hyperlink ref="F87" r:id="rId74"/>
+    <hyperlink ref="F88" r:id="rId75"/>
+    <hyperlink ref="F89" r:id="rId76"/>
+    <hyperlink ref="F90" r:id="rId77"/>
+    <hyperlink ref="F91" r:id="rId78"/>
+    <hyperlink ref="I45" r:id="rId79" display="https://drive.google.com/drive/folders/1lXF0LUAUBUf3O5vIsooryPiaWNUr8BtH "/>
+    <hyperlink ref="I55" r:id="rId80"/>
+    <hyperlink ref="F92" r:id="rId81"/>
+    <hyperlink ref="F99" r:id="rId82"/>
+    <hyperlink ref="J2" r:id="rId83"/>
+    <hyperlink ref="J6" r:id="rId84"/>
+    <hyperlink ref="J100" r:id="rId85"/>
+    <hyperlink ref="J17" r:id="rId86"/>
+    <hyperlink ref="J18" r:id="rId87"/>
+    <hyperlink ref="J19" r:id="rId88"/>
+    <hyperlink ref="J20" r:id="rId89"/>
+    <hyperlink ref="J21" r:id="rId90"/>
+    <hyperlink ref="J22" r:id="rId91"/>
+    <hyperlink ref="J23" r:id="rId92"/>
+    <hyperlink ref="J24" r:id="rId93"/>
+    <hyperlink ref="J25" r:id="rId94"/>
+    <hyperlink ref="J26" r:id="rId95"/>
+    <hyperlink ref="J27" r:id="rId96"/>
+    <hyperlink ref="J28" r:id="rId97"/>
+    <hyperlink ref="J29" r:id="rId98"/>
+    <hyperlink ref="J30" r:id="rId99"/>
+    <hyperlink ref="J31" r:id="rId100"/>
+    <hyperlink ref="J32" r:id="rId101"/>
+    <hyperlink ref="J33" r:id="rId102"/>
+    <hyperlink ref="J34" r:id="rId103"/>
+    <hyperlink ref="J35" r:id="rId104"/>
+    <hyperlink ref="J36" r:id="rId105"/>
+    <hyperlink ref="J37" r:id="rId106"/>
+    <hyperlink ref="J38" r:id="rId107"/>
+    <hyperlink ref="J39" r:id="rId108"/>
+    <hyperlink ref="J40" r:id="rId109"/>
+    <hyperlink ref="J41" r:id="rId110"/>
+    <hyperlink ref="J42" r:id="rId111"/>
+    <hyperlink ref="J43" r:id="rId112"/>
+    <hyperlink ref="J44" r:id="rId113"/>
+    <hyperlink ref="J45" r:id="rId114"/>
+    <hyperlink ref="J46" r:id="rId115"/>
+    <hyperlink ref="J47" r:id="rId116"/>
+    <hyperlink ref="J48" r:id="rId117"/>
+    <hyperlink ref="J49" r:id="rId118"/>
+    <hyperlink ref="J50" r:id="rId119"/>
+    <hyperlink ref="J51" r:id="rId120"/>
+    <hyperlink ref="J52" r:id="rId121"/>
+    <hyperlink ref="J53" r:id="rId122"/>
+    <hyperlink ref="J54" r:id="rId123"/>
+    <hyperlink ref="J55" r:id="rId124"/>
+    <hyperlink ref="J56" r:id="rId125"/>
+    <hyperlink ref="J57" r:id="rId126"/>
+    <hyperlink ref="J58" r:id="rId127"/>
+    <hyperlink ref="J59" r:id="rId128"/>
+    <hyperlink ref="J60" r:id="rId129"/>
+    <hyperlink ref="J61" r:id="rId130"/>
+    <hyperlink ref="J62" r:id="rId131"/>
+    <hyperlink ref="J63" r:id="rId132"/>
+    <hyperlink ref="J64" r:id="rId133"/>
+    <hyperlink ref="J65" r:id="rId134"/>
+    <hyperlink ref="J66" r:id="rId135"/>
+    <hyperlink ref="J67" r:id="rId136"/>
+    <hyperlink ref="J68" r:id="rId137"/>
+    <hyperlink ref="J69" r:id="rId138"/>
+    <hyperlink ref="J70" r:id="rId139"/>
+    <hyperlink ref="J71" r:id="rId140"/>
+    <hyperlink ref="J72" r:id="rId141"/>
+    <hyperlink ref="J73" r:id="rId142"/>
+    <hyperlink ref="J74" r:id="rId143"/>
+    <hyperlink ref="J75" r:id="rId144"/>
+    <hyperlink ref="J76" r:id="rId145"/>
+    <hyperlink ref="J77" r:id="rId146"/>
+    <hyperlink ref="J78" r:id="rId147"/>
+    <hyperlink ref="J79" r:id="rId148"/>
+    <hyperlink ref="J80" r:id="rId149"/>
+    <hyperlink ref="J81" r:id="rId150"/>
+    <hyperlink ref="J82" r:id="rId151"/>
+    <hyperlink ref="J83" r:id="rId152"/>
+    <hyperlink ref="J84" r:id="rId153"/>
+    <hyperlink ref="J85" r:id="rId154"/>
+    <hyperlink ref="J86" r:id="rId155"/>
+    <hyperlink ref="J87" r:id="rId156"/>
+    <hyperlink ref="J88" r:id="rId157"/>
+    <hyperlink ref="J89" r:id="rId158"/>
+    <hyperlink ref="J90" r:id="rId159"/>
+    <hyperlink ref="J91" r:id="rId160"/>
+    <hyperlink ref="J92" r:id="rId161"/>
+    <hyperlink ref="J99" r:id="rId162"/>
+    <hyperlink ref="F4" r:id="rId163"/>
+    <hyperlink ref="J4" r:id="rId164"/>
+    <hyperlink ref="F3" r:id="rId165"/>
+    <hyperlink ref="J3" r:id="rId166"/>
+    <hyperlink ref="F93" r:id="rId167"/>
+    <hyperlink ref="J93" r:id="rId168"/>
+    <hyperlink ref="F98" r:id="rId169"/>
+    <hyperlink ref="J98" r:id="rId170"/>
+    <hyperlink ref="F97" r:id="rId171"/>
+    <hyperlink ref="J97" r:id="rId172"/>
+    <hyperlink ref="F96" r:id="rId173"/>
+    <hyperlink ref="J96" r:id="rId174"/>
+    <hyperlink ref="F95" r:id="rId175"/>
+    <hyperlink ref="J95" r:id="rId176"/>
+    <hyperlink ref="F94" r:id="rId177"/>
+    <hyperlink ref="J94" r:id="rId178"/>
+    <hyperlink ref="F5" r:id="rId179"/>
+    <hyperlink ref="J5" r:id="rId180"/>
+    <hyperlink ref="F7" r:id="rId181"/>
+    <hyperlink ref="J7" r:id="rId182"/>
+    <hyperlink ref="F8" r:id="rId183"/>
+    <hyperlink ref="J8" r:id="rId184"/>
+    <hyperlink ref="F9" r:id="rId185"/>
+    <hyperlink ref="J9" r:id="rId186"/>
+    <hyperlink ref="F10" r:id="rId187"/>
+    <hyperlink ref="J10" r:id="rId188"/>
+    <hyperlink ref="F11" r:id="rId189"/>
+    <hyperlink ref="J11" r:id="rId190"/>
+    <hyperlink ref="F12" r:id="rId191"/>
+    <hyperlink ref="J12" r:id="rId192"/>
+    <hyperlink ref="F13" r:id="rId193"/>
+    <hyperlink ref="J13" r:id="rId194"/>
+    <hyperlink ref="F14" r:id="rId195"/>
+    <hyperlink ref="J14" r:id="rId196"/>
+    <hyperlink ref="F15" r:id="rId197"/>
+    <hyperlink ref="J15" r:id="rId198"/>
+    <hyperlink ref="J16" r:id="rId199"/>
+    <hyperlink ref="F16" r:id="rId200"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId201"/>
